--- a/Documents/Deliverables/LOCEstimation.xlsx
+++ b/Documents/Deliverables/LOCEstimation.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="0" windowWidth="51200" windowHeight="26860" tabRatio="500"/>
+    <workbookView xWindow="2480" yWindow="0" windowWidth="51200" windowHeight="26860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>LOC Estimation</t>
   </si>
@@ -255,17 +255,26 @@
     <t>The color coding is who I see as the designer of the sections (not necissarily the coder).   Think extra hard about classes with the same color as you name as your guess will be weighted higher than everyone elses.</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Alex: Add any testing you want to this.</t>
+  </si>
+  <si>
+    <t>Total (With 20% added buffer for a learning curve)</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Total Effort (Hours)</t>
+  </si>
+  <si>
+    <t>LOC per man-hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -304,8 +313,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +359,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -345,15 +374,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -369,12 +447,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -704,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -715,10 +806,14 @@
     <col min="1" max="1" width="31.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" customWidth="1"/>
     <col min="3" max="3" width="67.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" customWidth="1"/>
+    <col min="11" max="11" width="5.5" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45">
+    <row r="1" spans="1:12" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,12 +824,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="E2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1">
+    <row r="4" spans="1:12" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -748,7 +843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:12">
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
@@ -761,300 +856,918 @@
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="K6" s="14">
+        <v>25</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7" s="11">
+        <v>150</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+      <c r="H7">
+        <f>AVERAGE(D7:G7)</f>
+        <v>162.5</v>
+      </c>
+      <c r="I7">
+        <f>H7/K6</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8" s="11">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>60</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE(D8:G8)</f>
+        <v>85</v>
+      </c>
+      <c r="I8">
+        <f>H8/K6</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" s="11">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <f>AVERAGE(D9:G9)</f>
+        <v>82.5</v>
+      </c>
+      <c r="I9">
+        <f>H9/K6</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10" s="11">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>90</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGE(D10:G10)</f>
+        <v>97.5</v>
+      </c>
+      <c r="I10" s="13">
+        <f>H10/K6</f>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11" s="11">
+        <v>150</v>
+      </c>
+      <c r="F11">
+        <v>67</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <f>AVERAGE(D11:G11)</f>
+        <v>94.25</v>
+      </c>
+      <c r="I11">
+        <f>H11/K6</f>
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="D14">
+        <v>300</v>
+      </c>
+      <c r="E14" s="11">
+        <v>200</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <f>AVERAGE(D14:G14)</f>
+        <v>162.5</v>
+      </c>
+      <c r="I14">
+        <f>H14/K6</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15" s="11">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <f>AVERAGE(D15:G15)</f>
+        <v>75</v>
+      </c>
+      <c r="I15">
+        <f>H15/K6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>150</v>
+      </c>
+      <c r="E16" s="11">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <f>AVERAGE(D16:G16)</f>
+        <v>82.5</v>
+      </c>
+      <c r="I16">
+        <f>H16/K6</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D17">
+        <v>150</v>
+      </c>
+      <c r="E17" s="11">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>70</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <f>AVERAGE(D17:G17)</f>
+        <v>75</v>
+      </c>
+      <c r="I17">
+        <f>H17/K6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>500</v>
+      </c>
+      <c r="E20" s="11">
+        <v>250</v>
+      </c>
+      <c r="F20">
+        <v>200</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <f>AVERAGE(D20:G20)</f>
+        <v>262.5</v>
+      </c>
+      <c r="I20">
+        <f>H20/K6</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21" s="11">
+        <v>150</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <f>AVERAGE(D21:G21)</f>
+        <v>75</v>
+      </c>
+      <c r="I21">
+        <f>H21/K6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22" s="11">
+        <v>200</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <f>AVERAGE(D22:G22)</f>
+        <v>75</v>
+      </c>
+      <c r="I22">
+        <f>H22/K6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>150</v>
+      </c>
+      <c r="E23" s="11">
+        <v>250</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23">
+        <f>AVERAGE(D23:G23)</f>
+        <v>120</v>
+      </c>
+      <c r="I23">
+        <f>H23/K6</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24" s="11">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>40</v>
+      </c>
+      <c r="G24">
+        <v>40</v>
+      </c>
+      <c r="H24">
+        <f>AVERAGE(D24:G24)</f>
+        <v>70</v>
+      </c>
+      <c r="I24">
+        <f>H24/K6</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D25">
+        <v>300</v>
+      </c>
+      <c r="E25" s="11">
+        <v>200</v>
+      </c>
+      <c r="F25">
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <f>AVERAGE(D25:G25)</f>
+        <v>159</v>
+      </c>
+      <c r="I25">
+        <f>H25/K6</f>
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>200</v>
+      </c>
+      <c r="E28" s="11">
+        <v>200</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <f>AVERAGE(D28:G28)</f>
+        <v>112.5</v>
+      </c>
+      <c r="I28">
+        <f>H28/K6</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>150</v>
+      </c>
+      <c r="E29" s="11">
+        <v>150</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>40</v>
+      </c>
+      <c r="H29">
+        <f>AVERAGE(D29:G29)</f>
+        <v>92.5</v>
+      </c>
+      <c r="I29">
+        <f>H29/K6</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30" s="11">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <v>40</v>
+      </c>
+      <c r="H30">
+        <f>AVERAGE(D30:G30)</f>
+        <v>67.5</v>
+      </c>
+      <c r="I30">
+        <f>H30/K6</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31" s="11">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <f>AVERAGE(D31:G31)</f>
+        <v>67.5</v>
+      </c>
+      <c r="I31">
+        <f>H31/K6</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C32" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32" s="11">
+        <v>200</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>40</v>
+      </c>
+      <c r="H32">
+        <f>AVERAGE(D32:G32)</f>
+        <v>90</v>
+      </c>
+      <c r="I32">
+        <f>H32/K6</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="B33" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C33" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33" s="11">
+        <v>150</v>
+      </c>
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>40</v>
+      </c>
+      <c r="H33">
+        <f>AVERAGE(D33:G33)</f>
+        <v>80</v>
+      </c>
+      <c r="I33">
+        <f>H33/K6</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="B34" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C34" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34" s="11">
+        <v>150</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>90</v>
+      </c>
+      <c r="H34">
+        <f>AVERAGE(D34:G34)</f>
+        <v>97.5</v>
+      </c>
+      <c r="I34">
+        <f>H34/K6</f>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="B35" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C35" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35" s="11">
+        <v>150</v>
+      </c>
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <f>AVERAGE(D35:G35)</f>
+        <v>80</v>
+      </c>
+      <c r="I35">
+        <f>H35/K6</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="B38" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C38" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38" s="11">
+        <v>250</v>
+      </c>
+      <c r="F38">
+        <v>90</v>
+      </c>
+      <c r="G38">
+        <v>90</v>
+      </c>
+      <c r="H38">
+        <f>AVERAGE(D38:G38)</f>
+        <v>132.5</v>
+      </c>
+      <c r="I38">
+        <f>H38/K6</f>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="B39" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C39" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="D39">
+        <v>200</v>
+      </c>
+      <c r="E39" s="11">
+        <v>350</v>
+      </c>
+      <c r="F39">
+        <v>65</v>
+      </c>
+      <c r="G39">
+        <v>90</v>
+      </c>
+      <c r="H39">
+        <f>AVERAGE(D39:G39)</f>
+        <v>176.25</v>
+      </c>
+      <c r="I39">
+        <f>H39/K6</f>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="B40" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C40" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40" s="11">
+        <v>300</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40">
+        <v>90</v>
+      </c>
+      <c r="H40">
+        <f>AVERAGE(D40:G40)</f>
+        <v>135</v>
+      </c>
+      <c r="I40">
+        <f>H40/K6</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:10">
       <c r="B43" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C43" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="E43" s="11">
+        <v>300</v>
+      </c>
+      <c r="F43">
+        <v>125</v>
+      </c>
+      <c r="G43">
+        <v>90</v>
+      </c>
+      <c r="H43">
+        <f>AVERAGE(D43:G43)</f>
+        <v>141.25</v>
+      </c>
+      <c r="I43">
+        <f>H43/K6</f>
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="B44" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C44" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44" s="11">
+        <v>150</v>
+      </c>
+      <c r="F44">
+        <v>80</v>
+      </c>
+      <c r="G44">
+        <v>90</v>
+      </c>
+      <c r="H44">
+        <f>AVERAGE(D44:G44)</f>
+        <v>105</v>
+      </c>
+      <c r="I44">
+        <f>H44/K6</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="B45" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C45" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45" s="11">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+      <c r="G45">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <f>AVERAGE(D45:G45)</f>
+        <v>67.5</v>
+      </c>
+      <c r="I45">
+        <f>H45/K6</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="D47" s="5">
-        <f>SUM(D7:D45)</f>
-        <v>0</v>
+        <f>SUM(D7:D45)*1.2</f>
+        <v>5040</v>
       </c>
       <c r="E47" s="8">
-        <f>SUM(E7:E45)</f>
-        <v>0</v>
+        <f>SUM(E7:E45)*1.2</f>
+        <v>5760</v>
       </c>
       <c r="F47" s="6">
-        <f>SUM(F7:F45)</f>
-        <v>0</v>
+        <f>SUM(F7:F45)*1.2</f>
+        <v>2007.6</v>
       </c>
       <c r="G47" s="10">
-        <f>SUM(G7:G45)</f>
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
-        <v>78</v>
+        <f>SUM(G7:G45)*1.2</f>
+        <v>2184</v>
+      </c>
+      <c r="H47" s="12">
+        <f>SUM(H7:H45)*1.2</f>
+        <v>3747.8999999999996</v>
+      </c>
+      <c r="I47" s="12">
+        <f>SUM(I7:I45)</f>
+        <v>124.93000000000002</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="52" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>77</v>
